--- a/someData.xlsx
+++ b/someData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyx19\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyx19\Desktop\ba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BD9671-149D-4ACC-B7AF-970BFE7FA1F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F0ED07-F718-4A17-A935-B0DC39F5DCC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,241 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>area</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G_and_S_frontomargin</t>
-  </si>
-  <si>
-    <t>G_and_S_occipital_inf</t>
-  </si>
-  <si>
-    <t>G_and_S_paracentral</t>
-  </si>
-  <si>
-    <t>G_and_S_subcentral</t>
-  </si>
-  <si>
-    <t>G_and_S_transv_frontopol</t>
-  </si>
-  <si>
-    <t>G_and_S_cingul-Ant</t>
-  </si>
-  <si>
-    <t>G_and_S_cingul-Mid-Ant</t>
-  </si>
-  <si>
-    <t>G_and_S_cingul-Mid-Post</t>
-  </si>
-  <si>
-    <t>G_cingul-Post-dorsal</t>
-  </si>
-  <si>
-    <t>G_cingul-Post-ventral</t>
-  </si>
-  <si>
-    <t>G_cuneus</t>
-  </si>
-  <si>
-    <t>G_front_inf-Opercular</t>
-  </si>
-  <si>
-    <t>G_front_inf-Orbital</t>
-  </si>
-  <si>
-    <t>G_front_inf-Triangul</t>
-  </si>
-  <si>
-    <t>G_front_middle</t>
-  </si>
-  <si>
-    <t>G_front_sup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G_Ins_lg_and_S_cent_ins</t>
-  </si>
-  <si>
-    <t>G_insular_short</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G_occipital_middle</t>
-  </si>
-  <si>
-    <t>G_occipital_sup</t>
-  </si>
-  <si>
-    <t>G_oc-temp_lat-fusifor</t>
-  </si>
-  <si>
-    <t>G_oc-temp_med-Lingual</t>
-  </si>
-  <si>
-    <t>G_oc-temp_med-Parahip</t>
-  </si>
-  <si>
-    <t>G_orbital</t>
-  </si>
-  <si>
-    <t>G_pariet_inf-Angular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G_pariet_inf-Supramar</t>
-  </si>
-  <si>
-    <t>G_parietal_sup</t>
-  </si>
-  <si>
-    <t>G_postcentral</t>
-  </si>
-  <si>
-    <t>G_precentral</t>
-  </si>
-  <si>
-    <t>G_precuneus</t>
-  </si>
-  <si>
-    <t>G_rectus</t>
-  </si>
-  <si>
-    <t>G_subcallosal</t>
-  </si>
-  <si>
-    <t>G_temp_sup-G_T_transv</t>
-  </si>
-  <si>
-    <t>G_temp_sup-Lateral</t>
-  </si>
-  <si>
-    <t>G_temp_sup-Plan_polar</t>
-  </si>
-  <si>
-    <t>G_temp_sup-Plan_tempo</t>
-  </si>
-  <si>
-    <t>G_temporal_inf</t>
-  </si>
-  <si>
-    <t>G_temporal_middle</t>
-  </si>
-  <si>
-    <t>Lat_Fis-ant-Horizont</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lat_Fis-ant-Vertical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lat_Fis-post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pole_occipital</t>
-  </si>
-  <si>
-    <t>Pole_temporal</t>
-  </si>
-  <si>
-    <t>S_calcarine</t>
-  </si>
-  <si>
-    <t>S_central</t>
-  </si>
-  <si>
-    <t>S_cingul-Marginalis</t>
-  </si>
-  <si>
-    <t>S_circular_insula_ant</t>
-  </si>
-  <si>
-    <t>S_circular_insula_inf</t>
-  </si>
-  <si>
-    <t>S_circular_insula_sup</t>
-  </si>
-  <si>
-    <t>S_collat_transv_ant</t>
-  </si>
-  <si>
-    <t>S_collat_transv_post</t>
-  </si>
-  <si>
-    <t>S_front_inf</t>
-  </si>
-  <si>
-    <t>S_front_middle</t>
-  </si>
-  <si>
-    <t>S_front_sup</t>
-  </si>
-  <si>
-    <t>S_interm_prim-Jensen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_intrapariet_and_P_trans</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_oc_middle_and_Lunatus</t>
-  </si>
-  <si>
-    <t>S_oc_sup_and_transversal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_occipital_ant</t>
-  </si>
-  <si>
-    <t>S_oc-temp_lat</t>
-  </si>
-  <si>
-    <t>S_oc-temp_med_and_Lingual</t>
-  </si>
-  <si>
-    <t>S_orbital_lateral</t>
-  </si>
-  <si>
-    <t>S_orbital_med-olfact</t>
-  </si>
-  <si>
-    <t>S_orbital-H_Shaped</t>
-  </si>
-  <si>
-    <t>S_parieto_occipital</t>
-  </si>
-  <si>
-    <t>S_pericallosal</t>
-  </si>
-  <si>
-    <t>S_postcentral</t>
-  </si>
-  <si>
-    <t>S_precentral-inf-part</t>
-  </si>
-  <si>
-    <t>S_precentral-sup-part</t>
-  </si>
-  <si>
-    <t>S_suborbital</t>
-  </si>
-  <si>
-    <t>S_subparietal</t>
-  </si>
-  <si>
-    <t>S_temporal_inf</t>
-  </si>
-  <si>
-    <t>S_temporal_sup</t>
-  </si>
-  <si>
-    <t>S_temporal_transverse</t>
   </si>
 </sst>
 </file>
@@ -586,7 +355,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A75"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -599,372 +370,372 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75">
         <v>74</v>
       </c>
     </row>
